--- a/TableS3.xlsx
+++ b/TableS3.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="808">
   <si>
-    <t xml:space="preserve">Table S3. List of 59 unique instances of the GNRA fold strand topologies</t>
+    <t xml:space="preserve">Table S3. List of 59 unique instances of the GNRA tetraloop motif strand topologies</t>
   </si>
   <si>
     <t xml:space="preserve">Column</t>
@@ -2598,7 +2598,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3346,7 +3346,7 @@
       <selection pane="bottomLeft" activeCell="BH62" activeCellId="0" sqref="BH62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.54"/>
@@ -3356,9 +3356,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="2.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="2.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="2.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="2.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="2.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="4.36"/>
@@ -3374,7 +3374,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="38" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="46" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="2.54"/>
@@ -3383,7 +3383,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="41.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="41.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="1.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="141.08"/>
   </cols>
